--- a/Editor/EditorResources/Sample.xlsx
+++ b/Editor/EditorResources/Sample.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37315D1A-5DA0-430E-A4FD-B0DE57621263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09520C8D-FDD8-4A84-8C45-B019817DDA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English+Chinese" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If the TextName is "^", it means that it inherits the prefix of the previous line TextName and automatically increments the number of the suffix. This is the automatic numbering function. This requires that the first of a series of automatic numbering must explicitly specify the prefix and initial suffix number. The advantage of using this function is that you don't have to manually modify the TextName when inserting, deleting, or adjusting the order to ensure that the numbers are continuous. The program can also access these rows through a loop.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This is the first in a series of automatic numbering.</t>
   </si>
   <si>
@@ -344,6 +340,10 @@
   </si>
   <si>
     <t>This is the first in a series of automatic numbering.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use “^” as TextName to inherit the prefix of the previous TextName and automatically increments the number of the suffix. This is automatic numbering function. This requires that the first of a series of automatic numbering must explicitly specify the prefix and initial suffix number. The advantage of using this function is that you don't have to manually modify TextNames to ensure that the numbers are continuous when inserting a line, deleting a line, or adjusting line orders. Your scripts can also access these lines through a loop.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,9 +797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B28" sqref="B28"/>
+      <selection pane="topRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -994,7 +994,7 @@
     </row>
     <row r="27" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>62</v>
@@ -1005,7 +1005,7 @@
         <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>63</v>
@@ -1016,10 +1016,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1027,10 +1027,10 @@
         <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1044,9 +1044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AE7C58-882C-4B75-B7CB-D99F613C0896}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D40" sqref="D40"/>
+      <selection pane="topRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1249,11 +1249,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
-        <v>64</v>
+      <c r="B27" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1261,10 +1261,10 @@
         <v>60</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1272,10 +1272,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1283,10 +1283,10 @@
         <v>61</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
